--- a/HU_EspacioFisico_Horarios_01.xlsx
+++ b/HU_EspacioFisico_Horarios_01.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALCI\Documents\GitHub\UniversidadDocs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67F6BD-14FF-4D04-998F-EB8F7958880F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -103,35 +112,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -159,101 +172,427 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{744DCD96-20A4-442B-9A96-420F2BC3F114}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U974"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
-    <col customWidth="1" min="4" max="4" width="33.0"/>
-    <col customWidth="1" min="5" max="5" width="63.29"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -271,7 +610,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -294,7 +633,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -317,12 +656,14 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -340,18 +681,18 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1"/>
@@ -371,18 +712,18 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -402,12 +743,12 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -425,12 +766,12 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -448,12 +789,12 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -471,12 +812,12 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -494,18 +835,18 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
@@ -525,12 +866,12 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -548,12 +889,12 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -571,12 +912,12 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -594,12 +935,12 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -617,18 +958,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1"/>
@@ -648,12 +989,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -671,12 +1012,12 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -694,12 +1035,12 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -717,12 +1058,12 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -740,18 +1081,18 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="1"/>
@@ -771,12 +1112,12 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -794,12 +1135,12 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -817,12 +1158,12 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    <row r="24" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -840,12 +1181,12 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -863,18 +1204,18 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="1"/>
@@ -894,12 +1235,12 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+    <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -917,12 +1258,12 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+    <row r="28" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -940,12 +1281,12 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -963,18 +1304,18 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="1"/>
@@ -994,12 +1335,12 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+    <row r="31" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1017,12 +1358,12 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+    <row r="32" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1040,12 +1381,12 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1063,18 +1404,18 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="1"/>
@@ -1094,12 +1435,12 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+    <row r="35" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1117,12 +1458,12 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="36" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1140,12 +1481,12 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+    <row r="37" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1163,7 +1504,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1186,7 +1527,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1203,7 +1544,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1220,7 +1561,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1237,7 +1578,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1254,7 +1595,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1271,7 +1612,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1294,7 +1635,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1317,7 +1658,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1340,7 +1681,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1363,7 +1704,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1386,7 +1727,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1409,7 +1750,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1432,7 +1773,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1455,7 +1796,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1478,7 +1819,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1501,7 +1842,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1524,7 +1865,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1547,7 +1888,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1570,7 +1911,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1593,7 +1934,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1616,7 +1957,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1639,7 +1980,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1662,7 +2003,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1685,7 +2026,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1708,7 +2049,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1731,7 +2072,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1754,7 +2095,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1777,7 +2118,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1800,7 +2141,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1823,7 +2164,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1846,7 +2187,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1869,7 +2210,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1892,7 +2233,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1915,7 +2256,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1938,7 +2279,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1961,7 +2302,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1984,7 +2325,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2007,7 +2348,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2030,7 +2371,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2053,7 +2394,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2076,7 +2417,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2099,7 +2440,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2122,7 +2463,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2145,7 +2486,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2168,7 +2509,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2191,7 +2532,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2214,7 +2555,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2237,7 +2578,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2260,7 +2601,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2283,7 +2624,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2306,7 +2647,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2329,7 +2670,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2352,7 +2693,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2375,7 +2716,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2398,7 +2739,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2421,7 +2762,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2444,7 +2785,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2467,7 +2808,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2490,7 +2831,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2513,7 +2854,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2536,7 +2877,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2559,7 +2900,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2582,7 +2923,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2605,7 +2946,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2628,7 +2969,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2651,7 +2992,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2674,7 +3015,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2697,7 +3038,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2720,7 +3061,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2743,7 +3084,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2766,7 +3107,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2789,7 +3130,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2812,7 +3153,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2835,7 +3176,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2858,7 +3199,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2881,7 +3222,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2904,7 +3245,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2927,7 +3268,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2950,7 +3291,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2973,7 +3314,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2996,7 +3337,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3019,7 +3360,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3042,7 +3383,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3065,7 +3406,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3088,7 +3429,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3111,7 +3452,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3134,7 +3475,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3157,7 +3498,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3180,7 +3521,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3203,7 +3544,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3226,7 +3567,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3249,7 +3590,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3272,7 +3613,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3295,7 +3636,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3318,7 +3659,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3341,7 +3682,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3364,7 +3705,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3387,7 +3728,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3410,7 +3751,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3433,7 +3774,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3456,7 +3797,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3479,7 +3820,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3502,7 +3843,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3525,7 +3866,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3548,7 +3889,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3571,7 +3912,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3594,7 +3935,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3617,7 +3958,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3640,7 +3981,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3663,7 +4004,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3686,7 +4027,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3709,7 +4050,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3732,7 +4073,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3755,7 +4096,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3778,7 +4119,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3801,7 +4142,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3824,7 +4165,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3847,7 +4188,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3870,7 +4211,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3893,7 +4234,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3916,7 +4257,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3939,7 +4280,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3962,7 +4303,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3985,7 +4326,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4008,7 +4349,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4031,7 +4372,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4054,7 +4395,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4077,7 +4418,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4100,7 +4441,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4123,7 +4464,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4146,7 +4487,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4169,7 +4510,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4192,7 +4533,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4215,7 +4556,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4238,7 +4579,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4261,7 +4602,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4284,7 +4625,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4307,7 +4648,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4330,7 +4671,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4353,7 +4694,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4376,7 +4717,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4399,7 +4740,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4422,7 +4763,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4445,7 +4786,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4468,7 +4809,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4491,7 +4832,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4514,7 +4855,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4537,7 +4878,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4560,7 +4901,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4583,7 +4924,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4606,7 +4947,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4629,7 +4970,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4652,7 +4993,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4675,7 +5016,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4698,7 +5039,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4721,7 +5062,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4744,7 +5085,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4767,7 +5108,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4790,7 +5131,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4813,7 +5154,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4836,7 +5177,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4859,7 +5200,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4882,7 +5223,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4905,7 +5246,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4928,7 +5269,7 @@
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4951,7 +5292,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4974,7 +5315,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4997,7 +5338,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5020,7 +5361,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5043,7 +5384,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5066,7 +5407,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5089,7 +5430,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5112,7 +5453,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5135,7 +5476,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5158,7 +5499,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5181,7 +5522,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5204,7 +5545,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5227,7 +5568,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5250,7 +5591,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5273,7 +5614,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5296,7 +5637,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5319,7 +5660,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5342,7 +5683,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5365,7 +5706,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5388,7 +5729,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5411,7 +5752,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5434,7 +5775,7 @@
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5457,7 +5798,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5480,7 +5821,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5503,7 +5844,7 @@
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5526,7 +5867,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5549,7 +5890,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5572,7 +5913,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5595,7 +5936,7 @@
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5618,7 +5959,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5641,7 +5982,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5664,7 +6005,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5687,7 +6028,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5710,7 +6051,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5733,7 +6074,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5756,7 +6097,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5779,7 +6120,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5802,7 +6143,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5825,7 +6166,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5848,7 +6189,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5871,7 +6212,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5894,7 +6235,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5917,7 +6258,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5940,7 +6281,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5963,7 +6304,7 @@
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -5986,7 +6327,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6009,7 +6350,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6032,7 +6373,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6055,7 +6396,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6078,7 +6419,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6101,7 +6442,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6124,7 +6465,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6147,7 +6488,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6170,7 +6511,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6193,7 +6534,7 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6216,7 +6557,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6239,7 +6580,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6262,7 +6603,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6285,7 +6626,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6308,7 +6649,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6331,7 +6672,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6354,7 +6695,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6377,7 +6718,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6400,7 +6741,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6423,7 +6764,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6446,7 +6787,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6469,7 +6810,7 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6492,7 +6833,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6515,7 +6856,7 @@
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6538,7 +6879,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6561,7 +6902,7 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6584,7 +6925,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6607,7 +6948,7 @@
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6630,7 +6971,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6653,7 +6994,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6676,7 +7017,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6699,7 +7040,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -6722,7 +7063,7 @@
       <c r="T280" s="1"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6745,7 +7086,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -6768,7 +7109,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -6791,7 +7132,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6814,7 +7155,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -6837,7 +7178,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -6860,7 +7201,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -6883,7 +7224,7 @@
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -6906,7 +7247,7 @@
       <c r="T288" s="1"/>
       <c r="U288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -6929,7 +7270,7 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6952,7 +7293,7 @@
       <c r="T290" s="1"/>
       <c r="U290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -6975,7 +7316,7 @@
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -6998,7 +7339,7 @@
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7021,7 +7362,7 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7044,7 +7385,7 @@
       <c r="T294" s="1"/>
       <c r="U294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7067,7 +7408,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7090,7 +7431,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7113,7 +7454,7 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7136,7 +7477,7 @@
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7159,7 +7500,7 @@
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7182,7 +7523,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7205,7 +7546,7 @@
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7228,7 +7569,7 @@
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7251,7 +7592,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7274,7 +7615,7 @@
       <c r="T304" s="1"/>
       <c r="U304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7297,7 +7638,7 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7320,7 +7661,7 @@
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7343,7 +7684,7 @@
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7366,7 +7707,7 @@
       <c r="T308" s="1"/>
       <c r="U308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7389,7 +7730,7 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7412,7 +7753,7 @@
       <c r="T310" s="1"/>
       <c r="U310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7435,7 +7776,7 @@
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7458,7 +7799,7 @@
       <c r="T312" s="1"/>
       <c r="U312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7481,7 +7822,7 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7504,7 +7845,7 @@
       <c r="T314" s="1"/>
       <c r="U314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7527,7 +7868,7 @@
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7550,7 +7891,7 @@
       <c r="T316" s="1"/>
       <c r="U316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7573,7 +7914,7 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7596,7 +7937,7 @@
       <c r="T318" s="1"/>
       <c r="U318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7619,7 +7960,7 @@
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7642,7 +7983,7 @@
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7665,7 +8006,7 @@
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7688,7 +8029,7 @@
       <c r="T322" s="1"/>
       <c r="U322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7711,7 +8052,7 @@
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7734,7 +8075,7 @@
       <c r="T324" s="1"/>
       <c r="U324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -7757,7 +8098,7 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -7780,7 +8121,7 @@
       <c r="T326" s="1"/>
       <c r="U326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -7803,7 +8144,7 @@
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7826,7 +8167,7 @@
       <c r="T328" s="1"/>
       <c r="U328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7849,7 +8190,7 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7872,7 +8213,7 @@
       <c r="T330" s="1"/>
       <c r="U330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7895,7 +8236,7 @@
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7918,7 +8259,7 @@
       <c r="T332" s="1"/>
       <c r="U332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7941,7 +8282,7 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -7964,7 +8305,7 @@
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -7987,7 +8328,7 @@
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8010,7 +8351,7 @@
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8033,7 +8374,7 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8056,7 +8397,7 @@
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8079,7 +8420,7 @@
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8102,7 +8443,7 @@
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8125,7 +8466,7 @@
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8148,7 +8489,7 @@
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8171,7 +8512,7 @@
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8194,7 +8535,7 @@
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8217,7 +8558,7 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8240,7 +8581,7 @@
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8263,7 +8604,7 @@
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8286,7 +8627,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8309,7 +8650,7 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8332,7 +8673,7 @@
       <c r="T350" s="1"/>
       <c r="U350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8355,7 +8696,7 @@
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -8378,7 +8719,7 @@
       <c r="T352" s="1"/>
       <c r="U352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8401,7 +8742,7 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -8424,7 +8765,7 @@
       <c r="T354" s="1"/>
       <c r="U354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -8447,7 +8788,7 @@
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -8470,7 +8811,7 @@
       <c r="T356" s="1"/>
       <c r="U356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -8493,7 +8834,7 @@
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -8516,7 +8857,7 @@
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -8539,7 +8880,7 @@
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8562,7 +8903,7 @@
       <c r="T360" s="1"/>
       <c r="U360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8585,7 +8926,7 @@
       <c r="T361" s="1"/>
       <c r="U361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -8608,7 +8949,7 @@
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -8631,7 +8972,7 @@
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -8654,7 +8995,7 @@
       <c r="T364" s="1"/>
       <c r="U364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -8677,7 +9018,7 @@
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -8700,7 +9041,7 @@
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8723,7 +9064,7 @@
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -8746,7 +9087,7 @@
       <c r="T368" s="1"/>
       <c r="U368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -8769,7 +9110,7 @@
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -8792,7 +9133,7 @@
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -8815,7 +9156,7 @@
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -8838,7 +9179,7 @@
       <c r="T372" s="1"/>
       <c r="U372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -8861,7 +9202,7 @@
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -8884,7 +9225,7 @@
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -8907,7 +9248,7 @@
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -8930,7 +9271,7 @@
       <c r="T376" s="1"/>
       <c r="U376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -8953,7 +9294,7 @@
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -8976,7 +9317,7 @@
       <c r="T378" s="1"/>
       <c r="U378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -8999,7 +9340,7 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9022,7 +9363,7 @@
       <c r="T380" s="1"/>
       <c r="U380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9045,7 +9386,7 @@
       <c r="T381" s="1"/>
       <c r="U381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9068,7 +9409,7 @@
       <c r="T382" s="1"/>
       <c r="U382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -9091,7 +9432,7 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -9114,7 +9455,7 @@
       <c r="T384" s="1"/>
       <c r="U384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -9137,7 +9478,7 @@
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -9160,7 +9501,7 @@
       <c r="T386" s="1"/>
       <c r="U386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -9183,7 +9524,7 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -9206,7 +9547,7 @@
       <c r="T388" s="1"/>
       <c r="U388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -9229,7 +9570,7 @@
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -9252,7 +9593,7 @@
       <c r="T390" s="1"/>
       <c r="U390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -9275,7 +9616,7 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -9298,7 +9639,7 @@
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -9321,7 +9662,7 @@
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9344,7 +9685,7 @@
       <c r="T394" s="1"/>
       <c r="U394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9367,7 +9708,7 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9390,7 +9731,7 @@
       <c r="T396" s="1"/>
       <c r="U396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9413,7 +9754,7 @@
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9436,7 +9777,7 @@
       <c r="T398" s="1"/>
       <c r="U398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9459,7 +9800,7 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9482,7 +9823,7 @@
       <c r="T400" s="1"/>
       <c r="U400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -9505,7 +9846,7 @@
       <c r="T401" s="1"/>
       <c r="U401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -9528,7 +9869,7 @@
       <c r="T402" s="1"/>
       <c r="U402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -9551,7 +9892,7 @@
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -9574,7 +9915,7 @@
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -9597,7 +9938,7 @@
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -9620,7 +9961,7 @@
       <c r="T406" s="1"/>
       <c r="U406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -9643,7 +9984,7 @@
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -9666,7 +10007,7 @@
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -9689,7 +10030,7 @@
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -9712,7 +10053,7 @@
       <c r="T410" s="1"/>
       <c r="U410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -9735,7 +10076,7 @@
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -9758,7 +10099,7 @@
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -9781,7 +10122,7 @@
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -9804,7 +10145,7 @@
       <c r="T414" s="1"/>
       <c r="U414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -9827,7 +10168,7 @@
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -9850,7 +10191,7 @@
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -9873,7 +10214,7 @@
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -9896,7 +10237,7 @@
       <c r="T418" s="1"/>
       <c r="U418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -9919,7 +10260,7 @@
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -9942,7 +10283,7 @@
       <c r="T420" s="1"/>
       <c r="U420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -9965,7 +10306,7 @@
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -9988,7 +10329,7 @@
       <c r="T422" s="1"/>
       <c r="U422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10011,7 +10352,7 @@
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10034,7 +10375,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10057,7 +10398,7 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -10080,7 +10421,7 @@
       <c r="T426" s="1"/>
       <c r="U426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -10103,7 +10444,7 @@
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -10126,7 +10467,7 @@
       <c r="T428" s="1"/>
       <c r="U428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -10149,7 +10490,7 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -10172,7 +10513,7 @@
       <c r="T430" s="1"/>
       <c r="U430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10195,7 +10536,7 @@
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -10218,7 +10559,7 @@
       <c r="T432" s="1"/>
       <c r="U432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -10241,7 +10582,7 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -10264,7 +10605,7 @@
       <c r="T434" s="1"/>
       <c r="U434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -10287,7 +10628,7 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -10310,7 +10651,7 @@
       <c r="T436" s="1"/>
       <c r="U436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -10333,7 +10674,7 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -10356,7 +10697,7 @@
       <c r="T438" s="1"/>
       <c r="U438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -10379,7 +10720,7 @@
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -10402,7 +10743,7 @@
       <c r="T440" s="1"/>
       <c r="U440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -10425,7 +10766,7 @@
       <c r="T441" s="1"/>
       <c r="U441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -10448,7 +10789,7 @@
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -10471,7 +10812,7 @@
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -10494,7 +10835,7 @@
       <c r="T444" s="1"/>
       <c r="U444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -10517,7 +10858,7 @@
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -10540,7 +10881,7 @@
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -10563,7 +10904,7 @@
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -10586,7 +10927,7 @@
       <c r="T448" s="1"/>
       <c r="U448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -10609,7 +10950,7 @@
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -10632,7 +10973,7 @@
       <c r="T450" s="1"/>
       <c r="U450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -10655,7 +10996,7 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -10678,7 +11019,7 @@
       <c r="T452" s="1"/>
       <c r="U452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -10701,7 +11042,7 @@
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -10724,7 +11065,7 @@
       <c r="T454" s="1"/>
       <c r="U454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -10747,7 +11088,7 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -10770,7 +11111,7 @@
       <c r="T456" s="1"/>
       <c r="U456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -10793,7 +11134,7 @@
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -10816,7 +11157,7 @@
       <c r="T458" s="1"/>
       <c r="U458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -10839,7 +11180,7 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -10862,7 +11203,7 @@
       <c r="T460" s="1"/>
       <c r="U460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -10885,7 +11226,7 @@
       <c r="T461" s="1"/>
       <c r="U461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -10908,7 +11249,7 @@
       <c r="T462" s="1"/>
       <c r="U462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -10931,7 +11272,7 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -10954,7 +11295,7 @@
       <c r="T464" s="1"/>
       <c r="U464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -10977,7 +11318,7 @@
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11000,7 +11341,7 @@
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11023,7 +11364,7 @@
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11046,7 +11387,7 @@
       <c r="T468" s="1"/>
       <c r="U468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11069,7 +11410,7 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11092,7 +11433,7 @@
       <c r="T470" s="1"/>
       <c r="U470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11115,7 +11456,7 @@
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -11138,7 +11479,7 @@
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -11161,7 +11502,7 @@
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -11184,7 +11525,7 @@
       <c r="T474" s="1"/>
       <c r="U474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -11207,7 +11548,7 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -11230,7 +11571,7 @@
       <c r="T476" s="1"/>
       <c r="U476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -11253,7 +11594,7 @@
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -11276,7 +11617,7 @@
       <c r="T478" s="1"/>
       <c r="U478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -11299,7 +11640,7 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -11322,7 +11663,7 @@
       <c r="T480" s="1"/>
       <c r="U480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -11345,7 +11686,7 @@
       <c r="T481" s="1"/>
       <c r="U481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -11368,7 +11709,7 @@
       <c r="T482" s="1"/>
       <c r="U482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -11391,7 +11732,7 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -11414,7 +11755,7 @@
       <c r="T484" s="1"/>
       <c r="U484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -11437,7 +11778,7 @@
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -11460,7 +11801,7 @@
       <c r="T486" s="1"/>
       <c r="U486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -11483,7 +11824,7 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -11506,7 +11847,7 @@
       <c r="T488" s="1"/>
       <c r="U488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -11529,7 +11870,7 @@
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -11552,7 +11893,7 @@
       <c r="T490" s="1"/>
       <c r="U490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -11575,7 +11916,7 @@
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -11598,7 +11939,7 @@
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -11621,7 +11962,7 @@
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -11644,7 +11985,7 @@
       <c r="T494" s="1"/>
       <c r="U494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -11667,7 +12008,7 @@
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -11690,7 +12031,7 @@
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -11713,7 +12054,7 @@
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -11736,7 +12077,7 @@
       <c r="T498" s="1"/>
       <c r="U498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -11759,7 +12100,7 @@
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -11782,7 +12123,7 @@
       <c r="T500" s="1"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -11805,7 +12146,7 @@
       <c r="T501" s="1"/>
       <c r="U501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -11828,7 +12169,7 @@
       <c r="T502" s="1"/>
       <c r="U502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -11851,7 +12192,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -11874,7 +12215,7 @@
       <c r="T504" s="1"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -11897,7 +12238,7 @@
       <c r="T505" s="1"/>
       <c r="U505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -11920,7 +12261,7 @@
       <c r="T506" s="1"/>
       <c r="U506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -11943,7 +12284,7 @@
       <c r="T507" s="1"/>
       <c r="U507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -11966,7 +12307,7 @@
       <c r="T508" s="1"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -11989,7 +12330,7 @@
       <c r="T509" s="1"/>
       <c r="U509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -12012,7 +12353,7 @@
       <c r="T510" s="1"/>
       <c r="U510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -12035,7 +12376,7 @@
       <c r="T511" s="1"/>
       <c r="U511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -12058,7 +12399,7 @@
       <c r="T512" s="1"/>
       <c r="U512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -12081,7 +12422,7 @@
       <c r="T513" s="1"/>
       <c r="U513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -12104,7 +12445,7 @@
       <c r="T514" s="1"/>
       <c r="U514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -12127,7 +12468,7 @@
       <c r="T515" s="1"/>
       <c r="U515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -12150,7 +12491,7 @@
       <c r="T516" s="1"/>
       <c r="U516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -12173,7 +12514,7 @@
       <c r="T517" s="1"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -12196,7 +12537,7 @@
       <c r="T518" s="1"/>
       <c r="U518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -12219,7 +12560,7 @@
       <c r="T519" s="1"/>
       <c r="U519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -12242,7 +12583,7 @@
       <c r="T520" s="1"/>
       <c r="U520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -12265,7 +12606,7 @@
       <c r="T521" s="1"/>
       <c r="U521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -12288,7 +12629,7 @@
       <c r="T522" s="1"/>
       <c r="U522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -12311,7 +12652,7 @@
       <c r="T523" s="1"/>
       <c r="U523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -12334,7 +12675,7 @@
       <c r="T524" s="1"/>
       <c r="U524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -12357,7 +12698,7 @@
       <c r="T525" s="1"/>
       <c r="U525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -12380,7 +12721,7 @@
       <c r="T526" s="1"/>
       <c r="U526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -12403,7 +12744,7 @@
       <c r="T527" s="1"/>
       <c r="U527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -12426,7 +12767,7 @@
       <c r="T528" s="1"/>
       <c r="U528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -12449,7 +12790,7 @@
       <c r="T529" s="1"/>
       <c r="U529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -12472,7 +12813,7 @@
       <c r="T530" s="1"/>
       <c r="U530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -12495,7 +12836,7 @@
       <c r="T531" s="1"/>
       <c r="U531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -12518,7 +12859,7 @@
       <c r="T532" s="1"/>
       <c r="U532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -12541,7 +12882,7 @@
       <c r="T533" s="1"/>
       <c r="U533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -12564,7 +12905,7 @@
       <c r="T534" s="1"/>
       <c r="U534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -12587,7 +12928,7 @@
       <c r="T535" s="1"/>
       <c r="U535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -12610,7 +12951,7 @@
       <c r="T536" s="1"/>
       <c r="U536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -12633,7 +12974,7 @@
       <c r="T537" s="1"/>
       <c r="U537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -12656,7 +12997,7 @@
       <c r="T538" s="1"/>
       <c r="U538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -12679,7 +13020,7 @@
       <c r="T539" s="1"/>
       <c r="U539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -12702,7 +13043,7 @@
       <c r="T540" s="1"/>
       <c r="U540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -12725,7 +13066,7 @@
       <c r="T541" s="1"/>
       <c r="U541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -12748,7 +13089,7 @@
       <c r="T542" s="1"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -12771,7 +13112,7 @@
       <c r="T543" s="1"/>
       <c r="U543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -12794,7 +13135,7 @@
       <c r="T544" s="1"/>
       <c r="U544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -12817,7 +13158,7 @@
       <c r="T545" s="1"/>
       <c r="U545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -12840,7 +13181,7 @@
       <c r="T546" s="1"/>
       <c r="U546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -12863,7 +13204,7 @@
       <c r="T547" s="1"/>
       <c r="U547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -12886,7 +13227,7 @@
       <c r="T548" s="1"/>
       <c r="U548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -12909,7 +13250,7 @@
       <c r="T549" s="1"/>
       <c r="U549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -12932,7 +13273,7 @@
       <c r="T550" s="1"/>
       <c r="U550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -12955,7 +13296,7 @@
       <c r="T551" s="1"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -12978,7 +13319,7 @@
       <c r="T552" s="1"/>
       <c r="U552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -13001,7 +13342,7 @@
       <c r="T553" s="1"/>
       <c r="U553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -13024,7 +13365,7 @@
       <c r="T554" s="1"/>
       <c r="U554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -13047,7 +13388,7 @@
       <c r="T555" s="1"/>
       <c r="U555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -13070,7 +13411,7 @@
       <c r="T556" s="1"/>
       <c r="U556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -13093,7 +13434,7 @@
       <c r="T557" s="1"/>
       <c r="U557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -13116,7 +13457,7 @@
       <c r="T558" s="1"/>
       <c r="U558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -13139,7 +13480,7 @@
       <c r="T559" s="1"/>
       <c r="U559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -13162,7 +13503,7 @@
       <c r="T560" s="1"/>
       <c r="U560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -13185,7 +13526,7 @@
       <c r="T561" s="1"/>
       <c r="U561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -13208,7 +13549,7 @@
       <c r="T562" s="1"/>
       <c r="U562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -13231,7 +13572,7 @@
       <c r="T563" s="1"/>
       <c r="U563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -13254,7 +13595,7 @@
       <c r="T564" s="1"/>
       <c r="U564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -13277,7 +13618,7 @@
       <c r="T565" s="1"/>
       <c r="U565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -13300,7 +13641,7 @@
       <c r="T566" s="1"/>
       <c r="U566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -13323,7 +13664,7 @@
       <c r="T567" s="1"/>
       <c r="U567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -13346,7 +13687,7 @@
       <c r="T568" s="1"/>
       <c r="U568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -13369,7 +13710,7 @@
       <c r="T569" s="1"/>
       <c r="U569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -13392,7 +13733,7 @@
       <c r="T570" s="1"/>
       <c r="U570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -13415,7 +13756,7 @@
       <c r="T571" s="1"/>
       <c r="U571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -13438,7 +13779,7 @@
       <c r="T572" s="1"/>
       <c r="U572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -13461,7 +13802,7 @@
       <c r="T573" s="1"/>
       <c r="U573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -13484,7 +13825,7 @@
       <c r="T574" s="1"/>
       <c r="U574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -13507,7 +13848,7 @@
       <c r="T575" s="1"/>
       <c r="U575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -13530,7 +13871,7 @@
       <c r="T576" s="1"/>
       <c r="U576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -13553,7 +13894,7 @@
       <c r="T577" s="1"/>
       <c r="U577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -13576,7 +13917,7 @@
       <c r="T578" s="1"/>
       <c r="U578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -13599,7 +13940,7 @@
       <c r="T579" s="1"/>
       <c r="U579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -13622,7 +13963,7 @@
       <c r="T580" s="1"/>
       <c r="U580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -13645,7 +13986,7 @@
       <c r="T581" s="1"/>
       <c r="U581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -13668,7 +14009,7 @@
       <c r="T582" s="1"/>
       <c r="U582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -13691,7 +14032,7 @@
       <c r="T583" s="1"/>
       <c r="U583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -13714,7 +14055,7 @@
       <c r="T584" s="1"/>
       <c r="U584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -13737,7 +14078,7 @@
       <c r="T585" s="1"/>
       <c r="U585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -13760,7 +14101,7 @@
       <c r="T586" s="1"/>
       <c r="U586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -13783,7 +14124,7 @@
       <c r="T587" s="1"/>
       <c r="U587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -13806,7 +14147,7 @@
       <c r="T588" s="1"/>
       <c r="U588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -13829,7 +14170,7 @@
       <c r="T589" s="1"/>
       <c r="U589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -13852,7 +14193,7 @@
       <c r="T590" s="1"/>
       <c r="U590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -13875,7 +14216,7 @@
       <c r="T591" s="1"/>
       <c r="U591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -13898,7 +14239,7 @@
       <c r="T592" s="1"/>
       <c r="U592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -13921,7 +14262,7 @@
       <c r="T593" s="1"/>
       <c r="U593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -13944,7 +14285,7 @@
       <c r="T594" s="1"/>
       <c r="U594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -13967,7 +14308,7 @@
       <c r="T595" s="1"/>
       <c r="U595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -13990,7 +14331,7 @@
       <c r="T596" s="1"/>
       <c r="U596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -14013,7 +14354,7 @@
       <c r="T597" s="1"/>
       <c r="U597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -14036,7 +14377,7 @@
       <c r="T598" s="1"/>
       <c r="U598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -14059,7 +14400,7 @@
       <c r="T599" s="1"/>
       <c r="U599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -14082,7 +14423,7 @@
       <c r="T600" s="1"/>
       <c r="U600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -14105,7 +14446,7 @@
       <c r="T601" s="1"/>
       <c r="U601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -14128,7 +14469,7 @@
       <c r="T602" s="1"/>
       <c r="U602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -14151,7 +14492,7 @@
       <c r="T603" s="1"/>
       <c r="U603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -14174,7 +14515,7 @@
       <c r="T604" s="1"/>
       <c r="U604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -14197,7 +14538,7 @@
       <c r="T605" s="1"/>
       <c r="U605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -14220,7 +14561,7 @@
       <c r="T606" s="1"/>
       <c r="U606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -14243,7 +14584,7 @@
       <c r="T607" s="1"/>
       <c r="U607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -14266,7 +14607,7 @@
       <c r="T608" s="1"/>
       <c r="U608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -14289,7 +14630,7 @@
       <c r="T609" s="1"/>
       <c r="U609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -14312,7 +14653,7 @@
       <c r="T610" s="1"/>
       <c r="U610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -14335,7 +14676,7 @@
       <c r="T611" s="1"/>
       <c r="U611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -14358,7 +14699,7 @@
       <c r="T612" s="1"/>
       <c r="U612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -14381,7 +14722,7 @@
       <c r="T613" s="1"/>
       <c r="U613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -14404,7 +14745,7 @@
       <c r="T614" s="1"/>
       <c r="U614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -14427,7 +14768,7 @@
       <c r="T615" s="1"/>
       <c r="U615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -14450,7 +14791,7 @@
       <c r="T616" s="1"/>
       <c r="U616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -14473,7 +14814,7 @@
       <c r="T617" s="1"/>
       <c r="U617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -14496,7 +14837,7 @@
       <c r="T618" s="1"/>
       <c r="U618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -14519,7 +14860,7 @@
       <c r="T619" s="1"/>
       <c r="U619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -14542,7 +14883,7 @@
       <c r="T620" s="1"/>
       <c r="U620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -14565,7 +14906,7 @@
       <c r="T621" s="1"/>
       <c r="U621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -14588,7 +14929,7 @@
       <c r="T622" s="1"/>
       <c r="U622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -14611,7 +14952,7 @@
       <c r="T623" s="1"/>
       <c r="U623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -14634,7 +14975,7 @@
       <c r="T624" s="1"/>
       <c r="U624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -14657,7 +14998,7 @@
       <c r="T625" s="1"/>
       <c r="U625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -14680,7 +15021,7 @@
       <c r="T626" s="1"/>
       <c r="U626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -14703,7 +15044,7 @@
       <c r="T627" s="1"/>
       <c r="U627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -14726,7 +15067,7 @@
       <c r="T628" s="1"/>
       <c r="U628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -14749,7 +15090,7 @@
       <c r="T629" s="1"/>
       <c r="U629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -14772,7 +15113,7 @@
       <c r="T630" s="1"/>
       <c r="U630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -14795,7 +15136,7 @@
       <c r="T631" s="1"/>
       <c r="U631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -14818,7 +15159,7 @@
       <c r="T632" s="1"/>
       <c r="U632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -14841,7 +15182,7 @@
       <c r="T633" s="1"/>
       <c r="U633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -14864,7 +15205,7 @@
       <c r="T634" s="1"/>
       <c r="U634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -14887,7 +15228,7 @@
       <c r="T635" s="1"/>
       <c r="U635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -14910,7 +15251,7 @@
       <c r="T636" s="1"/>
       <c r="U636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -14933,7 +15274,7 @@
       <c r="T637" s="1"/>
       <c r="U637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -14956,7 +15297,7 @@
       <c r="T638" s="1"/>
       <c r="U638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -14979,7 +15320,7 @@
       <c r="T639" s="1"/>
       <c r="U639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -15002,7 +15343,7 @@
       <c r="T640" s="1"/>
       <c r="U640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -15025,7 +15366,7 @@
       <c r="T641" s="1"/>
       <c r="U641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -15048,7 +15389,7 @@
       <c r="T642" s="1"/>
       <c r="U642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -15071,7 +15412,7 @@
       <c r="T643" s="1"/>
       <c r="U643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -15094,7 +15435,7 @@
       <c r="T644" s="1"/>
       <c r="U644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -15117,7 +15458,7 @@
       <c r="T645" s="1"/>
       <c r="U645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -15140,7 +15481,7 @@
       <c r="T646" s="1"/>
       <c r="U646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -15163,7 +15504,7 @@
       <c r="T647" s="1"/>
       <c r="U647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -15186,7 +15527,7 @@
       <c r="T648" s="1"/>
       <c r="U648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -15209,7 +15550,7 @@
       <c r="T649" s="1"/>
       <c r="U649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -15232,7 +15573,7 @@
       <c r="T650" s="1"/>
       <c r="U650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -15255,7 +15596,7 @@
       <c r="T651" s="1"/>
       <c r="U651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -15278,7 +15619,7 @@
       <c r="T652" s="1"/>
       <c r="U652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -15301,7 +15642,7 @@
       <c r="T653" s="1"/>
       <c r="U653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -15324,7 +15665,7 @@
       <c r="T654" s="1"/>
       <c r="U654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -15347,7 +15688,7 @@
       <c r="T655" s="1"/>
       <c r="U655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -15370,7 +15711,7 @@
       <c r="T656" s="1"/>
       <c r="U656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -15393,7 +15734,7 @@
       <c r="T657" s="1"/>
       <c r="U657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -15416,7 +15757,7 @@
       <c r="T658" s="1"/>
       <c r="U658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -15439,7 +15780,7 @@
       <c r="T659" s="1"/>
       <c r="U659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -15462,7 +15803,7 @@
       <c r="T660" s="1"/>
       <c r="U660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -15485,7 +15826,7 @@
       <c r="T661" s="1"/>
       <c r="U661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -15508,7 +15849,7 @@
       <c r="T662" s="1"/>
       <c r="U662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -15531,7 +15872,7 @@
       <c r="T663" s="1"/>
       <c r="U663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -15554,7 +15895,7 @@
       <c r="T664" s="1"/>
       <c r="U664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -15577,7 +15918,7 @@
       <c r="T665" s="1"/>
       <c r="U665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -15600,7 +15941,7 @@
       <c r="T666" s="1"/>
       <c r="U666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -15623,7 +15964,7 @@
       <c r="T667" s="1"/>
       <c r="U667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -15646,7 +15987,7 @@
       <c r="T668" s="1"/>
       <c r="U668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -15669,7 +16010,7 @@
       <c r="T669" s="1"/>
       <c r="U669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -15692,7 +16033,7 @@
       <c r="T670" s="1"/>
       <c r="U670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -15715,7 +16056,7 @@
       <c r="T671" s="1"/>
       <c r="U671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -15738,7 +16079,7 @@
       <c r="T672" s="1"/>
       <c r="U672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -15761,7 +16102,7 @@
       <c r="T673" s="1"/>
       <c r="U673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -15784,7 +16125,7 @@
       <c r="T674" s="1"/>
       <c r="U674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -15807,7 +16148,7 @@
       <c r="T675" s="1"/>
       <c r="U675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -15830,7 +16171,7 @@
       <c r="T676" s="1"/>
       <c r="U676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -15853,7 +16194,7 @@
       <c r="T677" s="1"/>
       <c r="U677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -15876,7 +16217,7 @@
       <c r="T678" s="1"/>
       <c r="U678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -15899,7 +16240,7 @@
       <c r="T679" s="1"/>
       <c r="U679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -15922,7 +16263,7 @@
       <c r="T680" s="1"/>
       <c r="U680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -15945,7 +16286,7 @@
       <c r="T681" s="1"/>
       <c r="U681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -15968,7 +16309,7 @@
       <c r="T682" s="1"/>
       <c r="U682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -15991,7 +16332,7 @@
       <c r="T683" s="1"/>
       <c r="U683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -16014,7 +16355,7 @@
       <c r="T684" s="1"/>
       <c r="U684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -16037,7 +16378,7 @@
       <c r="T685" s="1"/>
       <c r="U685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -16060,7 +16401,7 @@
       <c r="T686" s="1"/>
       <c r="U686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -16083,7 +16424,7 @@
       <c r="T687" s="1"/>
       <c r="U687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -16106,7 +16447,7 @@
       <c r="T688" s="1"/>
       <c r="U688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -16129,7 +16470,7 @@
       <c r="T689" s="1"/>
       <c r="U689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -16152,7 +16493,7 @@
       <c r="T690" s="1"/>
       <c r="U690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -16175,7 +16516,7 @@
       <c r="T691" s="1"/>
       <c r="U691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -16198,7 +16539,7 @@
       <c r="T692" s="1"/>
       <c r="U692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -16221,7 +16562,7 @@
       <c r="T693" s="1"/>
       <c r="U693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -16244,7 +16585,7 @@
       <c r="T694" s="1"/>
       <c r="U694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -16267,7 +16608,7 @@
       <c r="T695" s="1"/>
       <c r="U695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -16290,7 +16631,7 @@
       <c r="T696" s="1"/>
       <c r="U696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -16313,7 +16654,7 @@
       <c r="T697" s="1"/>
       <c r="U697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -16336,7 +16677,7 @@
       <c r="T698" s="1"/>
       <c r="U698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -16359,7 +16700,7 @@
       <c r="T699" s="1"/>
       <c r="U699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -16382,7 +16723,7 @@
       <c r="T700" s="1"/>
       <c r="U700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -16405,7 +16746,7 @@
       <c r="T701" s="1"/>
       <c r="U701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -16428,7 +16769,7 @@
       <c r="T702" s="1"/>
       <c r="U702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -16451,7 +16792,7 @@
       <c r="T703" s="1"/>
       <c r="U703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -16474,7 +16815,7 @@
       <c r="T704" s="1"/>
       <c r="U704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -16497,7 +16838,7 @@
       <c r="T705" s="1"/>
       <c r="U705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -16520,7 +16861,7 @@
       <c r="T706" s="1"/>
       <c r="U706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -16543,7 +16884,7 @@
       <c r="T707" s="1"/>
       <c r="U707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -16566,7 +16907,7 @@
       <c r="T708" s="1"/>
       <c r="U708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -16589,7 +16930,7 @@
       <c r="T709" s="1"/>
       <c r="U709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -16612,7 +16953,7 @@
       <c r="T710" s="1"/>
       <c r="U710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -16635,7 +16976,7 @@
       <c r="T711" s="1"/>
       <c r="U711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -16658,7 +16999,7 @@
       <c r="T712" s="1"/>
       <c r="U712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -16681,7 +17022,7 @@
       <c r="T713" s="1"/>
       <c r="U713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -16704,7 +17045,7 @@
       <c r="T714" s="1"/>
       <c r="U714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -16727,7 +17068,7 @@
       <c r="T715" s="1"/>
       <c r="U715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -16750,7 +17091,7 @@
       <c r="T716" s="1"/>
       <c r="U716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -16773,7 +17114,7 @@
       <c r="T717" s="1"/>
       <c r="U717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -16796,7 +17137,7 @@
       <c r="T718" s="1"/>
       <c r="U718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -16819,7 +17160,7 @@
       <c r="T719" s="1"/>
       <c r="U719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -16842,7 +17183,7 @@
       <c r="T720" s="1"/>
       <c r="U720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -16865,7 +17206,7 @@
       <c r="T721" s="1"/>
       <c r="U721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -16888,7 +17229,7 @@
       <c r="T722" s="1"/>
       <c r="U722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -16911,7 +17252,7 @@
       <c r="T723" s="1"/>
       <c r="U723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -16934,7 +17275,7 @@
       <c r="T724" s="1"/>
       <c r="U724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -16957,7 +17298,7 @@
       <c r="T725" s="1"/>
       <c r="U725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -16980,7 +17321,7 @@
       <c r="T726" s="1"/>
       <c r="U726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -17003,7 +17344,7 @@
       <c r="T727" s="1"/>
       <c r="U727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -17026,7 +17367,7 @@
       <c r="T728" s="1"/>
       <c r="U728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -17049,7 +17390,7 @@
       <c r="T729" s="1"/>
       <c r="U729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -17072,7 +17413,7 @@
       <c r="T730" s="1"/>
       <c r="U730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -17095,7 +17436,7 @@
       <c r="T731" s="1"/>
       <c r="U731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -17118,7 +17459,7 @@
       <c r="T732" s="1"/>
       <c r="U732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -17141,7 +17482,7 @@
       <c r="T733" s="1"/>
       <c r="U733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -17164,7 +17505,7 @@
       <c r="T734" s="1"/>
       <c r="U734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -17187,7 +17528,7 @@
       <c r="T735" s="1"/>
       <c r="U735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -17210,7 +17551,7 @@
       <c r="T736" s="1"/>
       <c r="U736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -17233,7 +17574,7 @@
       <c r="T737" s="1"/>
       <c r="U737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -17256,7 +17597,7 @@
       <c r="T738" s="1"/>
       <c r="U738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -17279,7 +17620,7 @@
       <c r="T739" s="1"/>
       <c r="U739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -17302,7 +17643,7 @@
       <c r="T740" s="1"/>
       <c r="U740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -17325,7 +17666,7 @@
       <c r="T741" s="1"/>
       <c r="U741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -17348,7 +17689,7 @@
       <c r="T742" s="1"/>
       <c r="U742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -17371,7 +17712,7 @@
       <c r="T743" s="1"/>
       <c r="U743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -17394,7 +17735,7 @@
       <c r="T744" s="1"/>
       <c r="U744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -17417,7 +17758,7 @@
       <c r="T745" s="1"/>
       <c r="U745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -17440,7 +17781,7 @@
       <c r="T746" s="1"/>
       <c r="U746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -17463,7 +17804,7 @@
       <c r="T747" s="1"/>
       <c r="U747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -17486,7 +17827,7 @@
       <c r="T748" s="1"/>
       <c r="U748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -17509,7 +17850,7 @@
       <c r="T749" s="1"/>
       <c r="U749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -17532,7 +17873,7 @@
       <c r="T750" s="1"/>
       <c r="U750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -17555,7 +17896,7 @@
       <c r="T751" s="1"/>
       <c r="U751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -17578,7 +17919,7 @@
       <c r="T752" s="1"/>
       <c r="U752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -17601,7 +17942,7 @@
       <c r="T753" s="1"/>
       <c r="U753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -17624,7 +17965,7 @@
       <c r="T754" s="1"/>
       <c r="U754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -17647,7 +17988,7 @@
       <c r="T755" s="1"/>
       <c r="U755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -17670,7 +18011,7 @@
       <c r="T756" s="1"/>
       <c r="U756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -17693,7 +18034,7 @@
       <c r="T757" s="1"/>
       <c r="U757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -17716,7 +18057,7 @@
       <c r="T758" s="1"/>
       <c r="U758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -17739,7 +18080,7 @@
       <c r="T759" s="1"/>
       <c r="U759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -17762,7 +18103,7 @@
       <c r="T760" s="1"/>
       <c r="U760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -17785,7 +18126,7 @@
       <c r="T761" s="1"/>
       <c r="U761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -17808,7 +18149,7 @@
       <c r="T762" s="1"/>
       <c r="U762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -17831,7 +18172,7 @@
       <c r="T763" s="1"/>
       <c r="U763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -17854,7 +18195,7 @@
       <c r="T764" s="1"/>
       <c r="U764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -17877,7 +18218,7 @@
       <c r="T765" s="1"/>
       <c r="U765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -17900,7 +18241,7 @@
       <c r="T766" s="1"/>
       <c r="U766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -17923,7 +18264,7 @@
       <c r="T767" s="1"/>
       <c r="U767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -17946,7 +18287,7 @@
       <c r="T768" s="1"/>
       <c r="U768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -17969,7 +18310,7 @@
       <c r="T769" s="1"/>
       <c r="U769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -17992,7 +18333,7 @@
       <c r="T770" s="1"/>
       <c r="U770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -18015,7 +18356,7 @@
       <c r="T771" s="1"/>
       <c r="U771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -18038,7 +18379,7 @@
       <c r="T772" s="1"/>
       <c r="U772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -18061,7 +18402,7 @@
       <c r="T773" s="1"/>
       <c r="U773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -18084,7 +18425,7 @@
       <c r="T774" s="1"/>
       <c r="U774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -18107,7 +18448,7 @@
       <c r="T775" s="1"/>
       <c r="U775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -18130,7 +18471,7 @@
       <c r="T776" s="1"/>
       <c r="U776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -18153,7 +18494,7 @@
       <c r="T777" s="1"/>
       <c r="U777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -18176,7 +18517,7 @@
       <c r="T778" s="1"/>
       <c r="U778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -18199,7 +18540,7 @@
       <c r="T779" s="1"/>
       <c r="U779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -18222,7 +18563,7 @@
       <c r="T780" s="1"/>
       <c r="U780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -18245,7 +18586,7 @@
       <c r="T781" s="1"/>
       <c r="U781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -18268,7 +18609,7 @@
       <c r="T782" s="1"/>
       <c r="U782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -18291,7 +18632,7 @@
       <c r="T783" s="1"/>
       <c r="U783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -18314,7 +18655,7 @@
       <c r="T784" s="1"/>
       <c r="U784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -18337,7 +18678,7 @@
       <c r="T785" s="1"/>
       <c r="U785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -18360,7 +18701,7 @@
       <c r="T786" s="1"/>
       <c r="U786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -18383,7 +18724,7 @@
       <c r="T787" s="1"/>
       <c r="U787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -18406,7 +18747,7 @@
       <c r="T788" s="1"/>
       <c r="U788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -18429,7 +18770,7 @@
       <c r="T789" s="1"/>
       <c r="U789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -18452,7 +18793,7 @@
       <c r="T790" s="1"/>
       <c r="U790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -18475,7 +18816,7 @@
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -18498,7 +18839,7 @@
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -18521,7 +18862,7 @@
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -18544,7 +18885,7 @@
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -18567,7 +18908,7 @@
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -18590,7 +18931,7 @@
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -18613,7 +18954,7 @@
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -18636,7 +18977,7 @@
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -18659,7 +19000,7 @@
       <c r="T799" s="1"/>
       <c r="U799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -18682,7 +19023,7 @@
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -18705,7 +19046,7 @@
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -18728,7 +19069,7 @@
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -18751,7 +19092,7 @@
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -18774,7 +19115,7 @@
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -18797,7 +19138,7 @@
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -18820,7 +19161,7 @@
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -18843,7 +19184,7 @@
       <c r="T807" s="1"/>
       <c r="U807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -18866,7 +19207,7 @@
       <c r="T808" s="1"/>
       <c r="U808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -18889,7 +19230,7 @@
       <c r="T809" s="1"/>
       <c r="U809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -18912,7 +19253,7 @@
       <c r="T810" s="1"/>
       <c r="U810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -18935,7 +19276,7 @@
       <c r="T811" s="1"/>
       <c r="U811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -18958,7 +19299,7 @@
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -18981,7 +19322,7 @@
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -19004,7 +19345,7 @@
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -19027,7 +19368,7 @@
       <c r="T815" s="1"/>
       <c r="U815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -19050,7 +19391,7 @@
       <c r="T816" s="1"/>
       <c r="U816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -19073,7 +19414,7 @@
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -19096,7 +19437,7 @@
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -19119,7 +19460,7 @@
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -19142,7 +19483,7 @@
       <c r="T820" s="1"/>
       <c r="U820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -19165,7 +19506,7 @@
       <c r="T821" s="1"/>
       <c r="U821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -19188,7 +19529,7 @@
       <c r="T822" s="1"/>
       <c r="U822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -19211,7 +19552,7 @@
       <c r="T823" s="1"/>
       <c r="U823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -19234,7 +19575,7 @@
       <c r="T824" s="1"/>
       <c r="U824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -19257,7 +19598,7 @@
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -19280,7 +19621,7 @@
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -19303,7 +19644,7 @@
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -19326,7 +19667,7 @@
       <c r="T828" s="1"/>
       <c r="U828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -19349,7 +19690,7 @@
       <c r="T829" s="1"/>
       <c r="U829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -19372,7 +19713,7 @@
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -19395,7 +19736,7 @@
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -19418,7 +19759,7 @@
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -19441,7 +19782,7 @@
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -19464,7 +19805,7 @@
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -19487,7 +19828,7 @@
       <c r="T835" s="1"/>
       <c r="U835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -19510,7 +19851,7 @@
       <c r="T836" s="1"/>
       <c r="U836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -19533,7 +19874,7 @@
       <c r="T837" s="1"/>
       <c r="U837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -19556,7 +19897,7 @@
       <c r="T838" s="1"/>
       <c r="U838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -19579,7 +19920,7 @@
       <c r="T839" s="1"/>
       <c r="U839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -19602,7 +19943,7 @@
       <c r="T840" s="1"/>
       <c r="U840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -19625,7 +19966,7 @@
       <c r="T841" s="1"/>
       <c r="U841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -19648,7 +19989,7 @@
       <c r="T842" s="1"/>
       <c r="U842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -19671,7 +20012,7 @@
       <c r="T843" s="1"/>
       <c r="U843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -19694,7 +20035,7 @@
       <c r="T844" s="1"/>
       <c r="U844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -19717,7 +20058,7 @@
       <c r="T845" s="1"/>
       <c r="U845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -19740,7 +20081,7 @@
       <c r="T846" s="1"/>
       <c r="U846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -19763,7 +20104,7 @@
       <c r="T847" s="1"/>
       <c r="U847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -19786,7 +20127,7 @@
       <c r="T848" s="1"/>
       <c r="U848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -19809,7 +20150,7 @@
       <c r="T849" s="1"/>
       <c r="U849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -19832,7 +20173,7 @@
       <c r="T850" s="1"/>
       <c r="U850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -19855,7 +20196,7 @@
       <c r="T851" s="1"/>
       <c r="U851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -19878,7 +20219,7 @@
       <c r="T852" s="1"/>
       <c r="U852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -19901,7 +20242,7 @@
       <c r="T853" s="1"/>
       <c r="U853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -19924,7 +20265,7 @@
       <c r="T854" s="1"/>
       <c r="U854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -19947,7 +20288,7 @@
       <c r="T855" s="1"/>
       <c r="U855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -19970,7 +20311,7 @@
       <c r="T856" s="1"/>
       <c r="U856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -19993,7 +20334,7 @@
       <c r="T857" s="1"/>
       <c r="U857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -20016,7 +20357,7 @@
       <c r="T858" s="1"/>
       <c r="U858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -20039,7 +20380,7 @@
       <c r="T859" s="1"/>
       <c r="U859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -20062,7 +20403,7 @@
       <c r="T860" s="1"/>
       <c r="U860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -20085,7 +20426,7 @@
       <c r="T861" s="1"/>
       <c r="U861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -20108,7 +20449,7 @@
       <c r="T862" s="1"/>
       <c r="U862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -20131,7 +20472,7 @@
       <c r="T863" s="1"/>
       <c r="U863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -20154,7 +20495,7 @@
       <c r="T864" s="1"/>
       <c r="U864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -20177,7 +20518,7 @@
       <c r="T865" s="1"/>
       <c r="U865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -20200,7 +20541,7 @@
       <c r="T866" s="1"/>
       <c r="U866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -20223,7 +20564,7 @@
       <c r="T867" s="1"/>
       <c r="U867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -20246,7 +20587,7 @@
       <c r="T868" s="1"/>
       <c r="U868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -20269,7 +20610,7 @@
       <c r="T869" s="1"/>
       <c r="U869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -20292,7 +20633,7 @@
       <c r="T870" s="1"/>
       <c r="U870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -20315,7 +20656,7 @@
       <c r="T871" s="1"/>
       <c r="U871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -20338,7 +20679,7 @@
       <c r="T872" s="1"/>
       <c r="U872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -20361,7 +20702,7 @@
       <c r="T873" s="1"/>
       <c r="U873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -20384,7 +20725,7 @@
       <c r="T874" s="1"/>
       <c r="U874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -20407,7 +20748,7 @@
       <c r="T875" s="1"/>
       <c r="U875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -20430,7 +20771,7 @@
       <c r="T876" s="1"/>
       <c r="U876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -20453,7 +20794,7 @@
       <c r="T877" s="1"/>
       <c r="U877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -20476,7 +20817,7 @@
       <c r="T878" s="1"/>
       <c r="U878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -20499,7 +20840,7 @@
       <c r="T879" s="1"/>
       <c r="U879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -20522,7 +20863,7 @@
       <c r="T880" s="1"/>
       <c r="U880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -20545,7 +20886,7 @@
       <c r="T881" s="1"/>
       <c r="U881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -20568,7 +20909,7 @@
       <c r="T882" s="1"/>
       <c r="U882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -20591,7 +20932,7 @@
       <c r="T883" s="1"/>
       <c r="U883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -20614,7 +20955,7 @@
       <c r="T884" s="1"/>
       <c r="U884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -20637,7 +20978,7 @@
       <c r="T885" s="1"/>
       <c r="U885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -20660,7 +21001,7 @@
       <c r="T886" s="1"/>
       <c r="U886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -20683,7 +21024,7 @@
       <c r="T887" s="1"/>
       <c r="U887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -20706,7 +21047,7 @@
       <c r="T888" s="1"/>
       <c r="U888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -20729,7 +21070,7 @@
       <c r="T889" s="1"/>
       <c r="U889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -20752,7 +21093,7 @@
       <c r="T890" s="1"/>
       <c r="U890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -20775,7 +21116,7 @@
       <c r="T891" s="1"/>
       <c r="U891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -20798,7 +21139,7 @@
       <c r="T892" s="1"/>
       <c r="U892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -20821,7 +21162,7 @@
       <c r="T893" s="1"/>
       <c r="U893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -20844,7 +21185,7 @@
       <c r="T894" s="1"/>
       <c r="U894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -20867,7 +21208,7 @@
       <c r="T895" s="1"/>
       <c r="U895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -20890,7 +21231,7 @@
       <c r="T896" s="1"/>
       <c r="U896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -20913,7 +21254,7 @@
       <c r="T897" s="1"/>
       <c r="U897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -20936,7 +21277,7 @@
       <c r="T898" s="1"/>
       <c r="U898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -20959,7 +21300,7 @@
       <c r="T899" s="1"/>
       <c r="U899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -20982,7 +21323,7 @@
       <c r="T900" s="1"/>
       <c r="U900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -21005,7 +21346,7 @@
       <c r="T901" s="1"/>
       <c r="U901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -21028,7 +21369,7 @@
       <c r="T902" s="1"/>
       <c r="U902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -21051,7 +21392,7 @@
       <c r="T903" s="1"/>
       <c r="U903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -21074,7 +21415,7 @@
       <c r="T904" s="1"/>
       <c r="U904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -21097,7 +21438,7 @@
       <c r="T905" s="1"/>
       <c r="U905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -21120,7 +21461,7 @@
       <c r="T906" s="1"/>
       <c r="U906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -21143,7 +21484,7 @@
       <c r="T907" s="1"/>
       <c r="U907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -21166,7 +21507,7 @@
       <c r="T908" s="1"/>
       <c r="U908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -21189,7 +21530,7 @@
       <c r="T909" s="1"/>
       <c r="U909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -21212,7 +21553,7 @@
       <c r="T910" s="1"/>
       <c r="U910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -21235,7 +21576,7 @@
       <c r="T911" s="1"/>
       <c r="U911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -21258,7 +21599,7 @@
       <c r="T912" s="1"/>
       <c r="U912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -21281,7 +21622,7 @@
       <c r="T913" s="1"/>
       <c r="U913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -21304,7 +21645,7 @@
       <c r="T914" s="1"/>
       <c r="U914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -21327,7 +21668,7 @@
       <c r="T915" s="1"/>
       <c r="U915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -21350,7 +21691,7 @@
       <c r="T916" s="1"/>
       <c r="U916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -21373,7 +21714,7 @@
       <c r="T917" s="1"/>
       <c r="U917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -21396,7 +21737,7 @@
       <c r="T918" s="1"/>
       <c r="U918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -21419,7 +21760,7 @@
       <c r="T919" s="1"/>
       <c r="U919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -21442,7 +21783,7 @@
       <c r="T920" s="1"/>
       <c r="U920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -21465,7 +21806,7 @@
       <c r="T921" s="1"/>
       <c r="U921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -21488,7 +21829,7 @@
       <c r="T922" s="1"/>
       <c r="U922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -21511,7 +21852,7 @@
       <c r="T923" s="1"/>
       <c r="U923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -21534,7 +21875,7 @@
       <c r="T924" s="1"/>
       <c r="U924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -21557,7 +21898,7 @@
       <c r="T925" s="1"/>
       <c r="U925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -21580,7 +21921,7 @@
       <c r="T926" s="1"/>
       <c r="U926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -21603,7 +21944,7 @@
       <c r="T927" s="1"/>
       <c r="U927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -21626,7 +21967,7 @@
       <c r="T928" s="1"/>
       <c r="U928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -21649,7 +21990,7 @@
       <c r="T929" s="1"/>
       <c r="U929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -21672,7 +22013,7 @@
       <c r="T930" s="1"/>
       <c r="U930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -21695,7 +22036,7 @@
       <c r="T931" s="1"/>
       <c r="U931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -21718,7 +22059,7 @@
       <c r="T932" s="1"/>
       <c r="U932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -21741,7 +22082,7 @@
       <c r="T933" s="1"/>
       <c r="U933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -21764,7 +22105,7 @@
       <c r="T934" s="1"/>
       <c r="U934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -21787,7 +22128,7 @@
       <c r="T935" s="1"/>
       <c r="U935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -21810,7 +22151,7 @@
       <c r="T936" s="1"/>
       <c r="U936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -21833,7 +22174,7 @@
       <c r="T937" s="1"/>
       <c r="U937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -21856,7 +22197,7 @@
       <c r="T938" s="1"/>
       <c r="U938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -21879,7 +22220,7 @@
       <c r="T939" s="1"/>
       <c r="U939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -21902,7 +22243,7 @@
       <c r="T940" s="1"/>
       <c r="U940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -21925,7 +22266,7 @@
       <c r="T941" s="1"/>
       <c r="U941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -21948,7 +22289,7 @@
       <c r="T942" s="1"/>
       <c r="U942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -21971,7 +22312,7 @@
       <c r="T943" s="1"/>
       <c r="U943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -21994,7 +22335,7 @@
       <c r="T944" s="1"/>
       <c r="U944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -22017,7 +22358,7 @@
       <c r="T945" s="1"/>
       <c r="U945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -22040,7 +22381,7 @@
       <c r="T946" s="1"/>
       <c r="U946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -22063,7 +22404,7 @@
       <c r="T947" s="1"/>
       <c r="U947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -22086,7 +22427,7 @@
       <c r="T948" s="1"/>
       <c r="U948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -22109,7 +22450,7 @@
       <c r="T949" s="1"/>
       <c r="U949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -22132,7 +22473,7 @@
       <c r="T950" s="1"/>
       <c r="U950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -22155,7 +22496,7 @@
       <c r="T951" s="1"/>
       <c r="U951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -22178,7 +22519,7 @@
       <c r="T952" s="1"/>
       <c r="U952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -22201,7 +22542,7 @@
       <c r="T953" s="1"/>
       <c r="U953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -22224,7 +22565,7 @@
       <c r="T954" s="1"/>
       <c r="U954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -22247,7 +22588,7 @@
       <c r="T955" s="1"/>
       <c r="U955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -22270,7 +22611,7 @@
       <c r="T956" s="1"/>
       <c r="U956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -22293,7 +22634,7 @@
       <c r="T957" s="1"/>
       <c r="U957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -22316,7 +22657,7 @@
       <c r="T958" s="1"/>
       <c r="U958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -22339,7 +22680,7 @@
       <c r="T959" s="1"/>
       <c r="U959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -22362,7 +22703,7 @@
       <c r="T960" s="1"/>
       <c r="U960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -22385,7 +22726,7 @@
       <c r="T961" s="1"/>
       <c r="U961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -22408,7 +22749,7 @@
       <c r="T962" s="1"/>
       <c r="U962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -22431,7 +22772,7 @@
       <c r="T963" s="1"/>
       <c r="U963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -22454,7 +22795,7 @@
       <c r="T964" s="1"/>
       <c r="U964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -22477,7 +22818,7 @@
       <c r="T965" s="1"/>
       <c r="U965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -22500,7 +22841,7 @@
       <c r="T966" s="1"/>
       <c r="U966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -22523,7 +22864,7 @@
       <c r="T967" s="1"/>
       <c r="U967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -22546,7 +22887,7 @@
       <c r="T968" s="1"/>
       <c r="U968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -22569,7 +22910,7 @@
       <c r="T969" s="1"/>
       <c r="U969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -22592,7 +22933,7 @@
       <c r="T970" s="1"/>
       <c r="U970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -22615,7 +22956,7 @@
       <c r="T971" s="1"/>
       <c r="U971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -22638,7 +22979,7 @@
       <c r="T972" s="1"/>
       <c r="U972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -22661,7 +23002,7 @@
       <c r="T973" s="1"/>
       <c r="U973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -22686,20 +23027,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="E26:E28"/>
@@ -22716,7 +23043,21 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>